--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-294278.5350965043</v>
+        <v>-296484.6285029426</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604728</v>
+        <v>7094780.682604731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>14.0301000117425</v>
+        <v>414.0301000117425</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4414032841481</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.4125322208644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776875</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>180.7210442942962</v>
       </c>
       <c r="X2" t="n">
-        <v>92.89425895857984</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>46.36558293807983</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>124.3854763259699</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.6625960688247</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154857</v>
+        <v>65.95263903154856</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015519</v>
+        <v>57.88099638015517</v>
       </c>
       <c r="S3" t="n">
         <v>159.0353604252219</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>98.12452208929955</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.36018782739077</v>
       </c>
       <c r="R4" t="n">
-        <v>32.10459742380176</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>37.9512489788536</v>
+        <v>314.9760459762444</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>107.493792735289</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>224.685491826913</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>272.353353697898</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>79.49282700064508</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>113.507984335717</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>43.60620160013897</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873211</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.451579104186642</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>139.6060316770131</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,7 +1543,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>-2.279136879224097e-12</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,19 +1819,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>129.9283887204342</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.23490948285939</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203962</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>147.8726271271175</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>89.85922969650642</v>
+        <v>15.0743711067585</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>18.93482921065033</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>159.5790634306096</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>123.635739502077</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>205.1919266819912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -3001,7 +3001,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>203.4068132192032</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="32">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>69.60662835550657</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744754</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>259.1123481012747</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880212</v>
+        <v>6.081513486880219</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.6923455021301</v>
+        <v>73.69234550213011</v>
       </c>
       <c r="T35" t="n">
         <v>168.4225538535744</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V35" t="n">
         <v>292.2568421840892</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958916</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>131.7514048125821</v>
@@ -3430,19 +3430,19 @@
         <v>113.1200567321666</v>
       </c>
       <c r="E37" t="n">
-        <v>7.369432608408644</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368855</v>
+        <v>91.51502548911856</v>
       </c>
       <c r="G37" t="n">
         <v>130.5303919729825</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.85700412379236</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400159</v>
+        <v>53.43673638400161</v>
       </c>
       <c r="S37" t="n">
         <v>154.2736090453962</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247738</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,10 +3664,10 @@
         <v>131.7514048125821</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>109.9256317368855</v>
@@ -3676,7 +3676,7 @@
         <v>130.5303919729825</v>
       </c>
       <c r="H40" t="n">
-        <v>62.98767936405316</v>
+        <v>7.369432608409113</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>53.4367363840016</v>
       </c>
       <c r="S40" t="n">
         <v>154.2736090453962</v>
@@ -3746,7 +3746,7 @@
         <v>319.1876253346372</v>
       </c>
       <c r="E41" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862163</v>
       </c>
       <c r="F41" t="n">
         <v>371.3806294556657</v>
@@ -3806,7 +3806,7 @@
         <v>334.2356843924233</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700089</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,19 +3898,19 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E43" t="n">
-        <v>82.1242914010907</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F43" t="n">
         <v>109.9256317368855</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729825</v>
+        <v>11.11828451419695</v>
       </c>
       <c r="H43" t="n">
         <v>109.259598628275</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400155</v>
+        <v>53.43673638400156</v>
       </c>
       <c r="S43" t="n">
-        <v>154.2736090453961</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>184.0535329901234</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213008</v>
+        <v>73.69234550213007</v>
       </c>
       <c r="T44" t="n">
         <v>168.4225538535744</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4138,22 +4138,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>81.11137677745266</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E46" t="n">
         <v>110.9385463605234</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729824</v>
+        <v>130.5303919729825</v>
       </c>
       <c r="H46" t="n">
-        <v>109.259598628275</v>
+        <v>20.76202332067688</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379233</v>
+        <v>60.85700412379232</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400155</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>154.2736090453961</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1586.43194598371</v>
+        <v>1370.237634914073</v>
       </c>
       <c r="C2" t="n">
-        <v>1217.469429043298</v>
+        <v>1370.237634914073</v>
       </c>
       <c r="D2" t="n">
-        <v>859.2037304365474</v>
+        <v>1370.237634914073</v>
       </c>
       <c r="E2" t="n">
-        <v>473.4154778383031</v>
+        <v>1370.237634914073</v>
       </c>
       <c r="F2" t="n">
-        <v>62.42957304869556</v>
+        <v>959.2517301244659</v>
       </c>
       <c r="G2" t="n">
-        <v>48.25775485501627</v>
+        <v>541.0395078903825</v>
       </c>
       <c r="H2" t="n">
-        <v>48.25775485501627</v>
+        <v>211.3007166942733</v>
       </c>
       <c r="I2" t="n">
         <v>48.25775485501627</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244778</v>
+        <v>143.361340524478</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293491</v>
+        <v>406.6417666293495</v>
       </c>
       <c r="L2" t="n">
-        <v>785.541043602462</v>
+        <v>785.5410436024625</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782768</v>
+        <v>1223.746040782769</v>
       </c>
       <c r="N2" t="n">
         <v>1654.409655400859</v>
@@ -4355,25 +4355,25 @@
         <v>2412.887742750813</v>
       </c>
       <c r="S2" t="n">
-        <v>2231.049518025876</v>
+        <v>2412.887742750813</v>
       </c>
       <c r="T2" t="n">
-        <v>2011.327418133926</v>
+        <v>2193.165642858863</v>
       </c>
       <c r="U2" t="n">
-        <v>2011.327418133926</v>
+        <v>1939.383984366373</v>
       </c>
       <c r="V2" t="n">
-        <v>1680.264530790356</v>
+        <v>1939.383984366373</v>
       </c>
       <c r="W2" t="n">
-        <v>1680.264530790356</v>
+        <v>1756.837474978195</v>
       </c>
       <c r="X2" t="n">
-        <v>1586.43194598371</v>
+        <v>1756.837474978195</v>
       </c>
       <c r="Y2" t="n">
-        <v>1586.43194598371</v>
+        <v>1756.837474978195</v>
       </c>
     </row>
     <row r="3">
@@ -4386,19 +4386,19 @@
         <v>861.1863977183482</v>
       </c>
       <c r="C3" t="n">
-        <v>686.7333684372212</v>
+        <v>814.3524755586716</v>
       </c>
       <c r="D3" t="n">
-        <v>537.7989587759699</v>
+        <v>665.4180658974203</v>
       </c>
       <c r="E3" t="n">
-        <v>378.5615037705144</v>
+        <v>506.1806108919648</v>
       </c>
       <c r="F3" t="n">
-        <v>252.919608491757</v>
+        <v>359.6460529188497</v>
       </c>
       <c r="G3" t="n">
-        <v>114.8765821596108</v>
+        <v>221.6030265867035</v>
       </c>
       <c r="H3" t="n">
         <v>114.8765821596108</v>
@@ -4410,10 +4410,10 @@
         <v>111.2074192719582</v>
       </c>
       <c r="K3" t="n">
-        <v>345.4192653503516</v>
+        <v>345.4192653503517</v>
       </c>
       <c r="L3" t="n">
-        <v>721.7503922265946</v>
+        <v>721.7503922265947</v>
       </c>
       <c r="M3" t="n">
         <v>1212.890288538965</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.1708484374094</v>
+        <v>592.2931142257358</v>
       </c>
       <c r="C4" t="n">
-        <v>196.1708484374094</v>
+        <v>592.2931142257358</v>
       </c>
       <c r="D4" t="n">
-        <v>196.1708484374094</v>
+        <v>442.1764748134001</v>
       </c>
       <c r="E4" t="n">
-        <v>48.25775485501627</v>
+        <v>294.263381231007</v>
       </c>
       <c r="F4" t="n">
-        <v>48.25775485501627</v>
+        <v>147.3734337330966</v>
       </c>
       <c r="G4" t="n">
         <v>48.25775485501627</v>
@@ -4489,49 +4489,49 @@
         <v>48.25775485501627</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461011</v>
+        <v>91.87143294461013</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384343</v>
+        <v>203.2083598384344</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534286</v>
+        <v>330.9866617534287</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692851</v>
+        <v>461.1612976692852</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984523</v>
+        <v>565.3823477984524</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978476</v>
+        <v>631.0407786978477</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978476</v>
+        <v>592.2931142257358</v>
       </c>
       <c r="R4" t="n">
-        <v>598.6118924111792</v>
+        <v>592.2931142257358</v>
       </c>
       <c r="S4" t="n">
-        <v>598.6118924111792</v>
+        <v>592.2931142257358</v>
       </c>
       <c r="T4" t="n">
-        <v>598.6118924111792</v>
+        <v>592.2931142257358</v>
       </c>
       <c r="U4" t="n">
-        <v>598.6118924111792</v>
+        <v>592.2931142257358</v>
       </c>
       <c r="V4" t="n">
-        <v>598.6118924111792</v>
+        <v>592.2931142257358</v>
       </c>
       <c r="W4" t="n">
-        <v>598.6118924111792</v>
+        <v>592.2931142257358</v>
       </c>
       <c r="X4" t="n">
-        <v>598.6118924111792</v>
+        <v>592.2931142257358</v>
       </c>
       <c r="Y4" t="n">
-        <v>377.8193132676491</v>
+        <v>592.2931142257358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1307.111989013772</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="C5" t="n">
-        <v>938.1494720733608</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="D5" t="n">
-        <v>579.8837734666104</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="E5" t="n">
-        <v>579.8837734666104</v>
+        <v>936.552484813109</v>
       </c>
       <c r="F5" t="n">
-        <v>572.9382727174069</v>
+        <v>525.5665800235015</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.251320989584</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y5" t="n">
-        <v>1307.111989013772</v>
+        <v>1322.340737411353</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245972</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C7" t="n">
-        <v>513.8405610245972</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D7" t="n">
-        <v>513.8405610245972</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E7" t="n">
-        <v>365.927467442204</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>365.927467442204</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245972</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245972</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245972</v>
+        <v>246.4894537511405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1311.46306839134</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>900.4771636017324</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>482.5133554999193</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2167.012461985812</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>2167.012461985812</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>2167.012461985812</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y8" t="n">
-        <v>2167.012461985812</v>
+        <v>1697.251320989584</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>315.4874589503122</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>352.67413830922</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>352.67413830922</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V10" t="n">
-        <v>97.9896501033331</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W10" t="n">
-        <v>97.9896501033331</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>484.4236418782191</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>965.3449658766848</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C13" t="n">
-        <v>796.4087829487781</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>655.3925893356336</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>507.4794957532405</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5197,13 +5197,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5224,25 +5224,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1475.554715057173</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1475.554715057176</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>1186.137545020215</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>1186.137545020215</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.3449658766848</v>
+        <v>1123.1389409875</v>
       </c>
     </row>
     <row r="14">
@@ -5258,19 +5258,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5282,13 +5282,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>339.1038984121913</v>
+        <v>708.1835515663143</v>
       </c>
       <c r="C16" t="n">
-        <v>339.1038984121913</v>
+        <v>708.1835515663143</v>
       </c>
       <c r="D16" t="n">
-        <v>339.1038984121913</v>
+        <v>558.0669121539786</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>410.1538185715854</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736751</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5446,40 +5446,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1411.650169813749</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783402</v>
+        <v>1156.965681607862</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413797</v>
+        <v>1156.965681607862</v>
       </c>
       <c r="X16" t="n">
-        <v>391.8664332433624</v>
+        <v>928.9761307098445</v>
       </c>
       <c r="Y16" t="n">
-        <v>339.1038984121913</v>
+        <v>708.1835515663143</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,64 +5568,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>973.772650960108</v>
+        <v>260.9043113423044</v>
       </c>
       <c r="C19" t="n">
-        <v>804.8364680322011</v>
+        <v>260.9043113423044</v>
       </c>
       <c r="D19" t="n">
-        <v>654.7198286198653</v>
+        <v>260.9043113423044</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1412.55611102446</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W19" t="n">
-        <v>1123.138940987499</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X19" t="n">
-        <v>1123.138940987499</v>
+        <v>481.6968904858345</v>
       </c>
       <c r="Y19" t="n">
-        <v>973.772650960108</v>
+        <v>260.9043113423044</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5780,22 +5780,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>747.3928343215993</v>
+        <v>260.9043113423044</v>
       </c>
       <c r="C22" t="n">
-        <v>578.4566513936924</v>
+        <v>260.9043113423044</v>
       </c>
       <c r="D22" t="n">
-        <v>578.4566513936924</v>
+        <v>110.7876719299686</v>
       </c>
       <c r="E22" t="n">
-        <v>430.5435578112993</v>
+        <v>110.7876719299686</v>
       </c>
       <c r="F22" t="n">
-        <v>283.6536103133889</v>
+        <v>110.7876719299687</v>
       </c>
       <c r="G22" t="n">
-        <v>283.6536103133889</v>
+        <v>110.7876719299687</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442064</v>
@@ -5929,31 +5929,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1667.240599230347</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W22" t="n">
-        <v>1377.823429193386</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X22" t="n">
-        <v>1149.833878295369</v>
+        <v>481.6968904858345</v>
       </c>
       <c r="Y22" t="n">
-        <v>929.041299151839</v>
+        <v>260.9043113423044</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,43 +5990,43 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>500.2948715744232</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C25" t="n">
-        <v>500.2948715744232</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D25" t="n">
-        <v>500.2948715744232</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E25" t="n">
-        <v>500.2948715744232</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F25" t="n">
-        <v>500.2948715744232</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6166,31 +6166,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1674.827124689058</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1420.142636483171</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1130.72546644621</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>902.735915548193</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>681.9433364046629</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6233,43 +6233,43 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2536.15366264131</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3507.942201196468</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075805</v>
+        <v>3573.86000758939</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4287.215095036336</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>263.2638710736754</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431757</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1355.643526557401</v>
+        <v>1418.006381145422</v>
       </c>
       <c r="V28" t="n">
-        <v>1100.959038351514</v>
+        <v>1163.321892939535</v>
       </c>
       <c r="W28" t="n">
-        <v>893.6944659454626</v>
+        <v>873.9047229025748</v>
       </c>
       <c r="X28" t="n">
-        <v>665.7049150474453</v>
+        <v>645.9151720045575</v>
       </c>
       <c r="Y28" t="n">
-        <v>444.9123359039152</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6476,7 +6476,7 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6546,7 +6546,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6622,10 +6622,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6634,34 +6634,34 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
         <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437385</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201817</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221643</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y31" t="n">
         <v>277.2094992786341</v>
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858345</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>312.7607075579276</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201818</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221645</v>
+        <v>481.6968904858345</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>481.6968904858345</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>84.58533367967279</v>
       </c>
       <c r="J35" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K35" t="n">
-        <v>774.6894873488977</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L35" t="n">
-        <v>1639.208303002252</v>
+        <v>1058.318051576954</v>
       </c>
       <c r="M35" t="n">
-        <v>2172.740207674177</v>
+        <v>1591.849956248878</v>
       </c>
       <c r="N35" t="n">
-        <v>2719.519024732959</v>
+        <v>2495.443856591567</v>
       </c>
       <c r="O35" t="n">
-        <v>3222.491495612296</v>
+        <v>2998.416327470904</v>
       </c>
       <c r="P35" t="n">
-        <v>3646.712159243596</v>
+        <v>3711.771414917849</v>
       </c>
       <c r="Q35" t="n">
-        <v>4105.190361752584</v>
+        <v>4170.249617426837</v>
       </c>
       <c r="R35" t="n">
         <v>4229.266683983639</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285977</v>
       </c>
       <c r="C36" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474707</v>
       </c>
       <c r="D36" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862196</v>
       </c>
       <c r="E36" t="n">
-        <v>476.9921777807642</v>
+        <v>476.992177780764</v>
       </c>
       <c r="F36" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076491</v>
       </c>
       <c r="G36" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402677</v>
       </c>
       <c r="H36" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781352</v>
       </c>
       <c r="I36" t="n">
         <v>84.58533367967279</v>
       </c>
       <c r="J36" t="n">
-        <v>178.2626031702901</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K36" t="n">
-        <v>416.5268021506373</v>
+        <v>416.5268021506372</v>
       </c>
       <c r="L36" t="n">
         <v>783.2249624633026</v>
@@ -7053,7 +7053,7 @@
         <v>1797.681564447354</v>
       </c>
       <c r="W36" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X36" t="n">
         <v>1335.59270751362</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.258988086769</v>
+        <v>728.0534970725181</v>
       </c>
       <c r="C37" t="n">
-        <v>449.1767610033528</v>
+        <v>594.9712699891021</v>
       </c>
       <c r="D37" t="n">
-        <v>334.9140774355077</v>
+        <v>480.7085864212571</v>
       </c>
       <c r="E37" t="n">
-        <v>327.4702061138829</v>
+        <v>480.7085864212571</v>
       </c>
       <c r="F37" t="n">
-        <v>216.4342144604632</v>
+        <v>388.2691667352787</v>
       </c>
       <c r="G37" t="n">
-        <v>84.58533367967279</v>
+        <v>256.4202859544883</v>
       </c>
       <c r="H37" t="n">
-        <v>84.58533367967279</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I37" t="n">
         <v>84.58533367967279</v>
@@ -7099,7 +7099,7 @@
         <v>403.9760733218553</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935367</v>
+        <v>755.6763338935368</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7129,13 +7129,13 @@
         <v>1577.521461978951</v>
       </c>
       <c r="V37" t="n">
-        <v>1358.690929617555</v>
+        <v>1358.690929617554</v>
       </c>
       <c r="W37" t="n">
         <v>1105.127715425084</v>
       </c>
       <c r="X37" t="n">
-        <v>912.9921203715578</v>
+        <v>912.9921203715576</v>
       </c>
       <c r="Y37" t="n">
         <v>728.0534970725181</v>
@@ -7160,10 +7160,10 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529687</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424555</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H38" t="n">
         <v>90.72827659571341</v>
@@ -7172,28 +7172,28 @@
         <v>84.58533367967279</v>
       </c>
       <c r="J38" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K38" t="n">
-        <v>774.6894873488977</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L38" t="n">
-        <v>1225.723700597307</v>
+        <v>1415.13313486086</v>
       </c>
       <c r="M38" t="n">
-        <v>1759.255605269231</v>
+        <v>1948.665039532784</v>
       </c>
       <c r="N38" t="n">
-        <v>2739.007877495878</v>
+        <v>2495.443856591567</v>
       </c>
       <c r="O38" t="n">
-        <v>3241.980348375215</v>
+        <v>2998.416327470904</v>
       </c>
       <c r="P38" t="n">
-        <v>3646.712159243596</v>
+        <v>3711.771414917849</v>
       </c>
       <c r="Q38" t="n">
-        <v>4105.190361752584</v>
+        <v>4170.249617426837</v>
       </c>
       <c r="R38" t="n">
         <v>4229.266683983639</v>
@@ -7205,13 +7205,13 @@
         <v>3984.706179583938</v>
       </c>
       <c r="U38" t="n">
-        <v>3767.029658702264</v>
+        <v>3767.029658702265</v>
       </c>
       <c r="V38" t="n">
         <v>3471.820727203185</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.906027777562</v>
       </c>
       <c r="X38" t="n">
         <v>2817.294225360972</v>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285979</v>
       </c>
       <c r="C39" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474709</v>
       </c>
       <c r="D39" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862197</v>
       </c>
       <c r="E39" t="n">
         <v>476.9921777807642</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>636.2354894847504</v>
+        <v>582.2589880867695</v>
       </c>
       <c r="C40" t="n">
-        <v>503.1532624013341</v>
+        <v>449.1767610033532</v>
       </c>
       <c r="D40" t="n">
-        <v>503.1532624013341</v>
+        <v>334.9140774355083</v>
       </c>
       <c r="E40" t="n">
-        <v>391.0941246634317</v>
+        <v>334.9140774355083</v>
       </c>
       <c r="F40" t="n">
-        <v>280.0581330100119</v>
+        <v>223.8780857820886</v>
       </c>
       <c r="G40" t="n">
-        <v>148.2092522292215</v>
+        <v>92.02920500129815</v>
       </c>
       <c r="H40" t="n">
         <v>84.58533367967279</v>
@@ -7333,7 +7333,7 @@
         <v>164.8484282497936</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L40" t="n">
         <v>755.6763338935368</v>
@@ -7348,34 +7348,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q40" t="n">
         <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2226.491462321464</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S40" t="n">
-        <v>2070.659533992781</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
-        <v>1884.746874406798</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U40" t="n">
-        <v>1631.497963376932</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.667431015536</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W40" t="n">
-        <v>1159.104216823066</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X40" t="n">
-        <v>966.9686217695389</v>
+        <v>912.992120371558</v>
       </c>
       <c r="Y40" t="n">
-        <v>782.0299984704994</v>
+        <v>728.0534970725186</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D41" t="n">
         <v>1456.742661151839</v>
@@ -7403,58 +7403,58 @@
         <v>352.4579211424555</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571337</v>
+        <v>90.72827659571335</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J41" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K41" t="n">
-        <v>797.2985829156387</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L41" t="n">
-        <v>1248.332796164048</v>
+        <v>1415.133134860859</v>
       </c>
       <c r="M41" t="n">
-        <v>1781.864700835972</v>
+        <v>1948.665039532783</v>
       </c>
       <c r="N41" t="n">
-        <v>2328.643517894754</v>
+        <v>2495.443856591566</v>
       </c>
       <c r="O41" t="n">
-        <v>3208.608168224209</v>
+        <v>2998.416327470903</v>
       </c>
       <c r="P41" t="n">
-        <v>3921.963255671155</v>
+        <v>3711.771414917848</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426837</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983639</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355225</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583938</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702265</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203185</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.906027777562</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360973</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J42" t="n">
         <v>178.2626031702901</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.2589880867697</v>
+        <v>738.0909164154526</v>
       </c>
       <c r="C43" t="n">
-        <v>582.2589880867697</v>
+        <v>605.0086893320364</v>
       </c>
       <c r="D43" t="n">
-        <v>582.2589880867697</v>
+        <v>490.7460057641913</v>
       </c>
       <c r="E43" t="n">
-        <v>499.3051583886983</v>
+        <v>378.6868680262887</v>
       </c>
       <c r="F43" t="n">
-        <v>388.2691667352786</v>
+        <v>267.650876372869</v>
       </c>
       <c r="G43" t="n">
         <v>256.4202859544882</v>
@@ -7564,16 +7564,16 @@
         <v>146.0570550168367</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967279</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J43" t="n">
         <v>164.8484282497936</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7594,25 +7594,25 @@
         <v>2172.514960923483</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.6830325948</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="T43" t="n">
-        <v>1830.770373008817</v>
+        <v>1986.6023013375</v>
       </c>
       <c r="U43" t="n">
-        <v>1577.521461978951</v>
+        <v>1733.353390307634</v>
       </c>
       <c r="V43" t="n">
-        <v>1358.690929617555</v>
+        <v>1514.522857946238</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.127715425085</v>
+        <v>1260.959643753768</v>
       </c>
       <c r="X43" t="n">
-        <v>912.9921203715584</v>
+        <v>1068.824048700241</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.0534970725187</v>
+        <v>883.8854254012017</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C44" t="n">
         <v>1779.154403914098</v>
@@ -7631,13 +7631,13 @@
         <v>1456.742661151838</v>
       </c>
       <c r="E44" t="n">
-        <v>1106.808364398085</v>
+        <v>1106.808364398084</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529685</v>
+        <v>731.6764154529676</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424557</v>
+        <v>352.4579211424555</v>
       </c>
       <c r="H44" t="n">
         <v>90.72827659571337</v>
@@ -7646,28 +7646,28 @@
         <v>84.58533367967277</v>
       </c>
       <c r="J44" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K44" t="n">
-        <v>774.6894873488977</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L44" t="n">
-        <v>1639.208303002252</v>
+        <v>1058.318051576954</v>
       </c>
       <c r="M44" t="n">
-        <v>2172.740207674177</v>
+        <v>1591.849956248878</v>
       </c>
       <c r="N44" t="n">
-        <v>2719.519024732959</v>
+        <v>2495.443856591566</v>
       </c>
       <c r="O44" t="n">
-        <v>3222.491495612296</v>
+        <v>2998.416327470903</v>
       </c>
       <c r="P44" t="n">
-        <v>3646.712159243595</v>
+        <v>3711.771414917848</v>
       </c>
       <c r="Q44" t="n">
-        <v>4105.190361752583</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R44" t="n">
         <v>4229.266683983638</v>
@@ -7688,10 +7688,10 @@
         <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.2589880867697</v>
+        <v>636.2354894847508</v>
       </c>
       <c r="C46" t="n">
-        <v>582.2589880867697</v>
+        <v>636.2354894847508</v>
       </c>
       <c r="D46" t="n">
-        <v>500.3283044731811</v>
+        <v>521.9728059169057</v>
       </c>
       <c r="E46" t="n">
-        <v>388.2691667352786</v>
+        <v>409.9136681790033</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352786</v>
+        <v>298.8776765255836</v>
       </c>
       <c r="G46" t="n">
-        <v>256.4202859544882</v>
+        <v>167.0287957447932</v>
       </c>
       <c r="H46" t="n">
         <v>146.0570550168367</v>
@@ -7804,52 +7804,52 @@
         <v>84.58533367967277</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497934</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218552</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
       </c>
       <c r="N46" t="n">
-        <v>1511.522680445321</v>
+        <v>1511.52268044532</v>
       </c>
       <c r="O46" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q46" t="n">
         <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.514960923483</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="S46" t="n">
-        <v>2016.6830325948</v>
+        <v>2070.659533992781</v>
       </c>
       <c r="T46" t="n">
-        <v>1830.770373008817</v>
+        <v>1884.746874406798</v>
       </c>
       <c r="U46" t="n">
-        <v>1577.521461978951</v>
+        <v>1631.497963376932</v>
       </c>
       <c r="V46" t="n">
-        <v>1358.690929617555</v>
+        <v>1412.667431015536</v>
       </c>
       <c r="W46" t="n">
-        <v>1105.127715425085</v>
+        <v>1159.104216823066</v>
       </c>
       <c r="X46" t="n">
-        <v>912.9921203715583</v>
+        <v>966.9686217695391</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.0534970725187</v>
+        <v>782.0299984704998</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>277.6955688761702</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.06279368686295</v>
+        <v>53.06279368686292</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,19 +9638,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>316.9032015413811</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>429.3027489862386</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>185.3870697685868</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>360.4192760443495</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>29.74373462032497</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>360.4192760443495</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>10.05802475879096</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>22.8374702694353</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>360.4192760443486</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>360.4192760443485</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>29.74373462032406</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>177.3804010777507</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.009441341199249</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>156.2834494851787</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>166.3497438692354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>128.1651665445295</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.71202622497731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>54.89578521781436</v>
+        <v>129.6806438075623</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>127.4991334359188</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>6.446744828418645</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>162.5760987035359</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>81.33107165459984</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>16.14213605696598</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>16.14213605696621</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>79.00884466270578</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25123,7 +25123,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696655</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>103.5691137521148</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>18.41060624776696</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379235</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>46.2719192642219</v>
+        <v>101.8901660198659</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379236</v>
+        <v>60.85700412379237</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400161</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7514048125821</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321666</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>28.8142549594327</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>119.4121074587855</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>154.2736090453961</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>131.7514048125821</v>
       </c>
       <c r="D46" t="n">
-        <v>32.00867995471393</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368855</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>88.49757530759814</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>53.43673638400155</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.619452499</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524996</v>
+        <v>287364.6194524995</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524995</v>
       </c>
       <c r="E2" t="n">
-        <v>277957.2508208883</v>
+        <v>277957.2508208881</v>
       </c>
       <c r="F2" t="n">
-        <v>277957.2508208883</v>
+        <v>277957.2508208881</v>
       </c>
       <c r="G2" t="n">
-        <v>277957.2508208883</v>
+        <v>277957.2508208881</v>
       </c>
       <c r="H2" t="n">
         <v>277957.2508208882</v>
@@ -26341,19 +26341,19 @@
         <v>277957.2508208881</v>
       </c>
       <c r="L2" t="n">
-        <v>277957.2508208881</v>
+        <v>277957.2508208883</v>
       </c>
       <c r="M2" t="n">
-        <v>285065.6594338641</v>
+        <v>285065.6594338642</v>
       </c>
       <c r="N2" t="n">
-        <v>285065.6594338642</v>
+        <v>285065.6594338643</v>
       </c>
       <c r="O2" t="n">
         <v>285065.6594338642</v>
       </c>
       <c r="P2" t="n">
-        <v>285065.6594338641</v>
+        <v>285065.6594338643</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>507203.142839427</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418031</v>
+        <v>78665.28217418025</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>157829.4001410734</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022164</v>
+        <v>18289.94367022167</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223242.9088455552</v>
+        <v>223242.9088455553</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26433,10 +26433,10 @@
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499378</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499381</v>
@@ -26448,13 +26448,13 @@
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>53328.2441000035</v>
+        <v>53328.24410000349</v>
       </c>
       <c r="N4" t="n">
         <v>53328.24410000349</v>
       </c>
       <c r="O4" t="n">
-        <v>53328.24410000349</v>
+        <v>53328.24410000351</v>
       </c>
       <c r="P4" t="n">
         <v>53328.24410000352</v>
@@ -26470,7 +26470,7 @@
         <v>77204.68871133434</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26506,7 +26506,7 @@
         <v>91026.0498212368</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.0498212368</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="P5" t="n">
         <v>91026.04982123678</v>
@@ -26522,46 +26522,46 @@
         <v>-520286.1209438175</v>
       </c>
       <c r="C6" t="n">
-        <v>-75224.24671282174</v>
+        <v>-75224.24671282172</v>
       </c>
       <c r="D6" t="n">
-        <v>3441.035461358464</v>
+        <v>3441.035461358522</v>
       </c>
       <c r="E6" t="n">
-        <v>-570894.4051012259</v>
+        <v>-570961.6005914519</v>
       </c>
       <c r="F6" t="n">
-        <v>156483.0088921808</v>
+        <v>156415.8134019549</v>
       </c>
       <c r="G6" t="n">
-        <v>156483.0088921809</v>
+        <v>156415.8134019548</v>
       </c>
       <c r="H6" t="n">
-        <v>156483.0088921807</v>
+        <v>156415.8134019549</v>
       </c>
       <c r="I6" t="n">
-        <v>156483.0088921807</v>
+        <v>156415.8134019549</v>
       </c>
       <c r="J6" t="n">
-        <v>-1346.391248892716</v>
+        <v>-1413.586739118509</v>
       </c>
       <c r="K6" t="n">
-        <v>138193.065221959</v>
+        <v>138125.8697317332</v>
       </c>
       <c r="L6" t="n">
-        <v>156483.0088921806</v>
+        <v>156415.813401955</v>
       </c>
       <c r="M6" t="n">
-        <v>16862.57432444878</v>
+        <v>16846.15318145861</v>
       </c>
       <c r="N6" t="n">
-        <v>140711.3655126239</v>
+        <v>140694.9443696337</v>
       </c>
       <c r="O6" t="n">
-        <v>140711.3655126239</v>
+        <v>140694.9443696337</v>
       </c>
       <c r="P6" t="n">
-        <v>140711.3655126238</v>
+        <v>140694.9443696337</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N2" t="n">
         <v>35.49541628604573</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.568578968898</v>
+        <v>316.5685789688981</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,7 +26790,7 @@
         <v>603.2219356877033</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.568578968898</v>
+        <v>316.5685789688981</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818868</v>
+        <v>61.17508524818857</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27012,7 +27012,7 @@
         <v>603.2219356877033</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685229</v>
+        <v>71.06533706685241</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27036,7 +27036,7 @@
         <v>603.2219356877033</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685229</v>
+        <v>71.06533706685241</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27258,7 +27258,7 @@
         <v>603.2219356877033</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685229</v>
+        <v>71.06533706685241</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841481</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208644</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.9268023686671</v>
+        <v>69.92680236866707</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.0198424776875</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>168.5199244231168</v>
       </c>
       <c r="X2" t="n">
-        <v>276.8368417198892</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>126.3429160502359</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>20.683736067414</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.6591799828218</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4201179865476</v>
+        <v>69.29559589724809</v>
       </c>
       <c r="H4" t="n">
         <v>157.1516959462661</v>
@@ -27558,7 +27558,7 @@
         <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255606</v>
+        <v>52.99928112255605</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739079</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>119.5207908127092</v>
+        <v>151.625388236511</v>
       </c>
       <c r="S4" t="n">
         <v>214.068041219212</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>375.8329210419414</v>
+        <v>98.8081240445506</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>59.81600952376191</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>61.83750650967798</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>51.56941906645915</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>248.2594314694898</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>35.10748868249534</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>182.1034537888982</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>2.279136879224097e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604574</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="38">
@@ -30466,7 +30466,7 @@
         <v>35.49541628604577</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604577</v>
+        <v>35.4954162860455</v>
       </c>
       <c r="F41" t="n">
         <v>35.49541628604577</v>
@@ -30526,7 +30526,7 @@
         <v>35.49541628604577</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604464</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="42">
@@ -31045,40 +31045,40 @@
         <v>13.033398831619</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954148</v>
+        <v>49.0633573495415</v>
       </c>
       <c r="J2" t="n">
         <v>108.0135173035639</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221707</v>
+        <v>161.8842628221708</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166206</v>
+        <v>200.8317428166207</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175779</v>
+        <v>223.464010017578</v>
       </c>
       <c r="N2" t="n">
-        <v>227.079891324092</v>
+        <v>227.0798913240921</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497323</v>
+        <v>214.4251021497324</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847286</v>
+        <v>183.0068637847287</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944827</v>
+        <v>137.4305331944828</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248258</v>
+        <v>79.94231557248261</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855785</v>
+        <v>29.00022710855786</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100907</v>
+        <v>5.570970671100909</v>
       </c>
       <c r="U2" t="n">
         <v>0.1018110002714043</v>
@@ -31118,25 +31118,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859316</v>
+        <v>0.6809210943859318</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674657</v>
+        <v>6.576264253674658</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986651</v>
+        <v>23.44399381986652</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933051</v>
+        <v>64.33211093933052</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631879</v>
+        <v>109.953824263188</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665594</v>
+        <v>147.8464858665595</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380494</v>
+        <v>172.5298755380495</v>
       </c>
       <c r="N3" t="n">
         <v>177.0962279648744</v>
@@ -31148,19 +31148,19 @@
         <v>130.0260640674329</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915857</v>
+        <v>86.9189803991586</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248794</v>
+        <v>42.27683777248796</v>
       </c>
       <c r="S3" t="n">
         <v>12.64781067861587</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739785</v>
+        <v>2.744589849739786</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012709</v>
+        <v>0.04479744042012711</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111275</v>
+        <v>0.5708613719111277</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173483</v>
+        <v>5.075476561173485</v>
       </c>
       <c r="I4" t="n">
         <v>17.16735834801828</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411671</v>
+        <v>40.35989899411673</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840189</v>
+        <v>66.32371211840191</v>
       </c>
       <c r="L4" t="n">
-        <v>84.871517056678</v>
+        <v>84.87151705667803</v>
       </c>
       <c r="M4" t="n">
-        <v>89.485114871487</v>
+        <v>89.48511487148703</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890923</v>
+        <v>87.35735884890927</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009522013</v>
+        <v>80.68866009522016</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823306</v>
+        <v>69.04308810823309</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.8018554243036</v>
+        <v>47.80185542430362</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065851</v>
+        <v>25.66800314065852</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760283</v>
+        <v>9.948556817760286</v>
       </c>
       <c r="T4" t="n">
-        <v>2.43913495271118</v>
+        <v>2.439134952711181</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333426</v>
+        <v>0.03113789301333427</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895134</v>
+        <v>96.06422794895138</v>
       </c>
       <c r="K2" t="n">
         <v>265.9398243483549</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970838</v>
+        <v>382.7265423970839</v>
       </c>
       <c r="M2" t="n">
         <v>442.6313102831377</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394853</v>
+        <v>435.0137521394854</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907909</v>
+        <v>365.127071990791</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009417</v>
+        <v>273.5725762009418</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799379</v>
+        <v>127.439833979938</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307265</v>
+        <v>63.58551961307266</v>
       </c>
       <c r="K3" t="n">
-        <v>236.5776223014075</v>
+        <v>236.5776223014076</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901444</v>
+        <v>380.1324513901445</v>
       </c>
       <c r="M3" t="n">
         <v>496.100905366031</v>
@@ -34790,7 +34790,7 @@
         <v>525.0968902250946</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636606</v>
+        <v>413.2745248636607</v>
       </c>
       <c r="P3" t="n">
         <v>273.7472255292728</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251903</v>
+        <v>44.05422029251906</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169941</v>
+        <v>112.4615423169942</v>
       </c>
       <c r="M4" t="n">
         <v>129.0689918333276</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281378</v>
+        <v>131.4895312281379</v>
       </c>
       <c r="O4" t="n">
         <v>105.2737880092598</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312655</v>
+        <v>66.32164737312658</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35650,7 +35650,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
@@ -35659,7 +35659,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>855.8243173716079</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36379,7 +36379,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36601,22 +36601,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>981.6045843991501</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>436.1813745723063</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36844,10 +36844,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -37008,7 +37008,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>912.721111457261</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>428.5057208396968</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911196</v>
+        <v>81.07383289911198</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303653</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>816.0093904366817</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>408.8200109781628</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>360.0287568248358</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>816.0093904366807</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37792,13 +37792,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597709</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>912.72111145726</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>428.5057208396959</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
